--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_BC.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_BC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05747BAE-0E40-4343-B92C-4C0ED75AA16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CCDB72-F109-4024-960D-1570C27B8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3591501-E185-4A3F-A3DB-0F2BD1858251}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X8"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,16 +622,16 @@
         <v>0.9</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">

--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_BC.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_BC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CCDB72-F109-4024-960D-1570C27B8E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B50BC10-EF55-404A-84F6-1427D8AEE1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3591501-E185-4A3F-A3DB-0F2BD1858251}"/>
+    <workbookView xWindow="34530" yWindow="3060" windowWidth="17250" windowHeight="8865" xr2:uid="{94CD5FC3-0B86-4F13-AE1A-B863E29A3820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,21 +487,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1392304F-81A2-478E-BBAC-097DF2BE0F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30268EB8-E147-4115-9889-CC33BEDB1D2F}">
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection sqref="A1:X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -575,7 +575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -622,19 +622,19 @@
         <v>0.9</v>
       </c>
       <c r="T3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -660,7 +660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -686,7 +686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -712,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -738,7 +738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>

--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_BC.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_BC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B50BC10-EF55-404A-84F6-1427D8AEE1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD31914A-FAEF-4FCB-9C1E-A098B2D6BC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34530" yWindow="3060" windowWidth="17250" windowHeight="8865" xr2:uid="{94CD5FC3-0B86-4F13-AE1A-B863E29A3820}"/>
+    <workbookView xWindow="34530" yWindow="3060" windowWidth="17250" windowHeight="8865" xr2:uid="{5CB2F276-5413-4F75-915B-788D0C396523}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30268EB8-E147-4115-9889-CC33BEDB1D2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0713B198-176D-42CE-8C31-172B96D2933A}">
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -622,16 +622,16 @@
         <v>0.9</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">

--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_BC.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD31914A-FAEF-4FCB-9C1E-A098B2D6BC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C622B94-6790-4218-BD3F-3226B2F72373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34530" yWindow="3060" windowWidth="17250" windowHeight="8865" xr2:uid="{5CB2F276-5413-4F75-915B-788D0C396523}"/>
+    <workbookView xWindow="31920" yWindow="675" windowWidth="17250" windowHeight="8865" xr2:uid="{5CB2F276-5413-4F75-915B-788D0C396523}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0713B198-176D-42CE-8C31-172B96D2933A}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,16 +622,16 @@
         <v>0.9</v>
       </c>
       <c r="T3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">

--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_BC.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_BC.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C622B94-6790-4218-BD3F-3226B2F72373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73AE0A39-6EEC-46CB-B04B-504AA155161D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="675" windowWidth="17250" windowHeight="8865" xr2:uid="{5CB2F276-5413-4F75-915B-788D0C396523}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9166B367-5B24-4EE8-9B2E-3EBCE6CC0ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -101,13 +101,13 @@
     <t>%</t>
   </si>
   <si>
+    <t>Should move once include subsidy policy! - 2015 &amp; 2020 values are actual sales; https://www150.statcan.gc.ca/t1/tbl1/en/cv.action?pid=2010002101</t>
+  </si>
+  <si>
     <t>Plug-in Hybrid</t>
   </si>
   <si>
     <t>Market share_class</t>
-  </si>
-  <si>
-    <t>E85</t>
   </si>
   <si>
     <t>BEV 500</t>
@@ -487,21 +487,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0713B198-176D-42CE-8C31-172B96D2933A}">
-  <dimension ref="A1:X8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64640EA-3D8F-4219-B12F-E364B462351F}">
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:W3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -575,7 +575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="R3">
         <v>0.25</v>
@@ -622,19 +622,22 @@
         <v>0.9</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.99</v>
+      </c>
+      <c r="X3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -651,16 +654,16 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -677,16 +680,16 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -703,16 +706,16 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -729,38 +732,12 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
         <v>19</v>
       </c>
     </row>

--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_BC.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_BC.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73AE0A39-6EEC-46CB-B04B-504AA155161D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF08D818-7E66-4AD8-9A02-1DD78D562AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9166B367-5B24-4EE8-9B2E-3EBCE6CC0ADE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E6079D6-3F18-47CF-9D60-C6B8890C6FB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
     <t>%</t>
   </si>
   <si>
-    <t>Should move once include subsidy policy! - 2015 &amp; 2020 values are actual sales; https://www150.statcan.gc.ca/t1/tbl1/en/cv.action?pid=2010002101</t>
+    <t>Should move 2015 &amp; 2020 values (actual sales) once include subsidy policy! ; https://www150.statcan.gc.ca/t1/tbl1/en/cv.action?pid=2010002101</t>
   </si>
   <si>
     <t>Plug-in Hybrid</t>
@@ -487,7 +487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64640EA-3D8F-4219-B12F-E364B462351F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF425B87-C1E2-4421-806B-7D3ACE010B85}">
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -622,16 +622,16 @@
         <v>0.9</v>
       </c>
       <c r="T3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="X3" t="s">
         <v>21</v>
